--- a/Liquid Vision Plumbing/35355/zres_siteapp_NEW_2.xlsx
+++ b/Liquid Vision Plumbing/35355/zres_siteapp_NEW_2.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Liquid Vision Plumbing\35355\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F9BBF-5727-4518-952D-1A40DA7B2B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667513EE-B922-421B-B571-368EB25FD47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="330" windowWidth="28890" windowHeight="19710" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
+    <workbookView xWindow="5805" yWindow="1350" windowWidth="28890" windowHeight="18450" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
   </bookViews>
   <sheets>
     <sheet name="zres_siteapp_NEW" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zres_siteapp_NEW!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -41,13 +44,55 @@
   </si>
   <si>
     <t>Postfix</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>LAUNDRY Fit Off</t>
+  </si>
+  <si>
+    <t>45e8814a-82cf-423b-a9fd-c3a56e777229</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>64ea1fac-2ca2-53ac-8cbc-c7ae8bf68f4a</t>
+  </si>
+  <si>
+    <t>STAND PIPE</t>
+  </si>
+  <si>
+    <t>8c1c9886-484f-524e-80d9-9515125af26a</t>
+  </si>
+  <si>
+    <t>LAUNDRY Commissioning</t>
+  </si>
+  <si>
+    <t>04384438-8cbc-56bd-86c4-bb4aeb27be4e</t>
+  </si>
+  <si>
+    <t>FLOOR WASTE</t>
+  </si>
+  <si>
+    <t>LAUNDRY Fit Off V2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +227,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +411,16 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5D5E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CC82"/>
       </patternFill>
     </fill>
   </fills>
@@ -524,8 +584,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,18 +966,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="159" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -938,7 +1006,99 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>